--- a/TestSteps.xlsx
+++ b/TestSteps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa NR\2024\AI_Selenium\AI_SNR_Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2F6F64-AD50-4948-B2CF-12591B10EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20220CE-9B88-4098-8223-34E35C36177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{C27EA07C-E797-433D-A02A-B0B12C84BE2E}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Visit https://magento.softwaretestingboard.com/</t>
   </si>
   <si>
-    <t>Click mens &gt; tops &gt; tees</t>
+    <t>Select 1 product and add to cart</t>
   </si>
   <si>
-    <t>Select 1 product and add to cart</t>
+    <t>Click mens &gt; tops &gt; tee</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -434,12 +434,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestSteps.xlsx
+++ b/TestSteps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sensa NR\2024\AI_Selenium\AI_SNR_Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20220CE-9B88-4098-8223-34E35C36177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8326A7-1452-41EE-A5EF-D63E5F3BC7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{C27EA07C-E797-433D-A02A-B0B12C84BE2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C27EA07C-E797-433D-A02A-B0B12C84BE2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Visit https://magento.softwaretestingboard.com/</t>
   </si>
   <si>
-    <t>Select 1 product and add to cart</t>
-  </si>
-  <si>
-    <t>Click mens &gt; tops &gt; tee</t>
+    <t xml:space="preserve">Click mens &gt; tops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 1 product </t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Pick the first product size</t>
+  </si>
+  <si>
+    <t>Pick the first product colour</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD6502-6751-4BA0-96D6-6FA58123877F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -434,12 +443,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
